--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rsrko\Documents\UiPath\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c4de7f1e00a631/Documents/UiPath/AssignmentRPA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22803C3-5589-4155-B8DD-B4E9443F3801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E22803C3-5589-4155-B8DD-B4E9443F3801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96BD756-578D-4560-A53A-F4899881ABC7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Rules.xlsx
+++ b/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3c4de7f1e00a631/Documents/UiPath/AssignmentRPA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E22803C3-5589-4155-B8DD-B4E9443F3801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96BD756-578D-4560-A53A-F4899881ABC7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{E22803C3-5589-4155-B8DD-B4E9443F3801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D600400-C1AF-4733-A180-EFF7BFE2885A}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,6 +99,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -389,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>77.349999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
